--- a/dados - Copia.xlsx
+++ b/dados - Copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\gallery_tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE004923-2E4B-4728-B13C-0F64B86EE764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8714B54D-446D-48DA-A18A-8748A89B8D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="276">
   <si>
     <t>TÍTULO</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Em busca de cinderela / Em busca de perfeição</t>
   </si>
   <si>
-    <t>A incovininete loja de coneveniência</t>
-  </si>
-  <si>
     <t>Kim Ho-Yeon</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
     <t>A última carta de amor</t>
   </si>
   <si>
-    <t>Tempestade do Sul</t>
-  </si>
-  <si>
     <t>Brittainy Cherry</t>
   </si>
   <si>
@@ -517,6 +511,351 @@
   </si>
   <si>
     <t>Lendo</t>
+  </si>
+  <si>
+    <t>Lynn Painter</t>
+  </si>
+  <si>
+    <t>Melhor do que nos filmes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/dp/6555607289?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61y5iLUKS3L._SL1005_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/dp/655987219X?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/716ikkyXiRL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Hannah Bonam</t>
+  </si>
+  <si>
+    <t>Sinais do amor</t>
+  </si>
+  <si>
+    <t>Minha melhor parte</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/dp/6559871568?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81A7dIAnhhL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Não é como nos filmes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/dp/8551014153?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71KrPChpFXL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Relatos de um gato viajante</t>
+  </si>
+  <si>
+    <t>Hiro Arikawa</t>
+  </si>
+  <si>
+    <t>Alfaguara</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/dp/8556520480?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81a9krs52mL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Vou te receitar outro gato</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/dp/855101370X?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81ZBTeP9DHL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>O massacre da família Hope</t>
+  </si>
+  <si>
+    <t>Riley Sager</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/dp/8551009834?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/815bfY-u6-L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>A inconveniente loja de conveniência 2</t>
+  </si>
+  <si>
+    <t>A inconveniente loja de conveniência</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/dp/6558382938?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/9183e29GLqL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>TRÊS</t>
+  </si>
+  <si>
+    <t>Valérie Perrin</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/dp/6555606649?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/6103XjAz8iL._SL1005_.jpg</t>
+  </si>
+  <si>
+    <t>Depois daquele inverno</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/dp/8501922501?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81Gte3Jh0JL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>A playlist</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/dp/850192010X?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91skzK6RvaL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Landon &amp; Say - Vol I</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/dp/655587287X?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81QxigKmYeL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Landon &amp; Say - Vol II</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/dp/8501921009?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/812cHXhE8EL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Layla-Colleen-Hoover/dp/6555872039/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.78aQoa6u_SnJ20jW0l7C6HHA2SwcvPQFvN6UqzOk7_fTHfN2epn0UxtWeqBSnhJeAa6SsLSSsll1LOyEEHp7Sw3d4NNnXiYOntycVvgcqyWVhYtklfIEskVoes6s3YvYBg-ZJwgZmAxBa8_WJMSK_YMtqsLBs33gzKOhDKC180i9Vts-0UaDLoR6deXdHy0cXGXAFMexvLiOmtNGvD_1f3TeMdfMwZ8bCA4EjuAvG1k.-JqdXmBjutAEW0ysGJdPRq8SXdA9IaJmXOWY5v8sukI&amp;dib_tag=se&amp;keywords=Layla&amp;qid=1740100015&amp;s=books&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91-M+6ZOjuL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/M%C3%A9trica-Vol-Slammed-Colleen-Hoover/dp/6559812774/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=191OR3TY6EG63&amp;dib=eyJ2IjoiMSJ9.IRG1Fps08R8xseSLYXUz6R3EjWnxy7xaQ2rvrNy-r-FKFyZkDVuiDzMKnKZhXXw8OmezEeLhQWX5CE5capcqbedOQKywfouHbh_EAuzx02K18iU2EBIfScHlD6wV63BiaQDGHRa0HawkxHCN_nQDK3ACPuLRWnsZYgvwnlR9Pk6g9NKVmiFgX-nBqOm7-yxB65WdXWanHeIrkiQrtg2tQXJkW_40khLMXrO9_r4pGMU.cfJo1Rlbbu853y-IY-FMS5trZGdsANUly1rSuwmRB0Q&amp;dib_tag=se&amp;keywords=M%C3%A9trica&amp;qid=1740100035&amp;s=books&amp;sprefix=layla%2Cstripbooks%2C185&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91mxfTQLQ8L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Pausa-Vol-Slammed-Colleen-Hoover/dp/6559812766/ref=pd_bxgy_thbs_d_sccl_2/136-3354926-5014409?pd_rd_w=Do727&amp;content-id=amzn1.sym.ea5263f5-901f-4a74-9b73-3fc0e530788d&amp;pf_rd_p=ea5263f5-901f-4a74-9b73-3fc0e530788d&amp;pf_rd_r=Y1BPW5YA48HFJFY0RBGY&amp;pd_rd_wg=sdduo&amp;pd_rd_r=c0b4ac4f-34fb-48d8-8017-48b6eecd9e94&amp;pd_rd_i=6559812766&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91dXp8vn0SL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/garota-Slammed-vol-3-ebook/dp/B00O2DZMDG/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=1FDQBOKPYLQVF&amp;dib=eyJ2IjoiMSJ9.zKZP-OfF2EbzcPgAA1Qhn-odx1demHiUKl7dwNMtoW7X7C2zgBCflq2YiILEH2clMxoemkgKe18avMrzGcFLfrfic2dzlnXCZ34dM0OEftOpIJDpWGpK0TzgPDDlBMF9jyQvTqg8GLsS_ZiZWPbEfdkEWl6yb8fAMVgG0-SR3UgiykMJEAWD8b9lrt_Y7iSv6GjvwAGqWdtgXvI9BNZ7RvMnS-_2iwD9fWsufpL3NJY.-EW1uX_0E9ollyt336U4cdO2Tgn7XwQ0PTiQAYaei4M&amp;dib_tag=se&amp;keywords=Essa+Garota&amp;qid=1740100071&amp;s=books&amp;sprefix=%2Cstripbooks%2C195&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91WkdA80scL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Um-caso-perdido-Vol-Hopeless/dp/6559811050/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=3SLWN0JOVMLD5&amp;dib=eyJ2IjoiMSJ9.t12Ubhz6-i73lRq4XUoN1xeUBqviqw1XO7RMLWMTkY01poWF4XIAOeZl5CiXHXxIqmSC-FyxbRhUZOyhXH249RIO5tkY5ANkti7d-tGxTI6tG71-QcNDzqlDAjYy1YzFvMZ8WheK6jmsc-H2nLGTAn5hZ2nIhuJ0CopLR4eIuaERCQsY-H9rKFHZgtq84vMtdp5rfFH4t3H4UZMRvPVtNPB3dN6Ipn4L5jR_6GnC_yE.hk7Bh7NPkeps2X2d-B27R5nriR_eZc9I2UpBAnIzDgY&amp;dib_tag=se&amp;keywords=Um+caso+perdido&amp;qid=1740100084&amp;s=books&amp;sprefix=um+caso+perdido%2Cstripbooks%2C186&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81BnNuSP4uL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Sem-esperan%C3%A7a-Vol-2-Hopeless-ebook/dp/B09X24N1H4/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=32O7G5RBQIIFY&amp;dib=eyJ2IjoiMSJ9.J_FpUCPns7gl0PcszvFQglJSYSWFLkmRvqvzxKf7M81Poz5HfngwKQZhqKxs3PP0m45fcBFMaPR2p_d_zPUmEqkySVDtlgZ2CgbPABS06-O9-_MZWaWlavvaA_GLClgQq7KJuLpZNsbYGLe2wxcRAP2_qN1LTdLo-YfJD7KfDxvvgc_DetCETlQxOIE7hZGvMhZT90QWnhapsR_Syg687GoZLdSG-xgRw-4MyRPnvRA.r4A-6QpaWdZ_gsN_naskZEooZ6QzjfBOHkEyO8unQS0&amp;dib_tag=se&amp;keywords=Sem+esperan%C3%A7a&amp;qid=1740100100&amp;s=books&amp;sprefix=um+caso+perdido%2Cstripbooks%2C178&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91DszGVK+2L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Em-busca-Cinderela-perfei%C3%A7%C3%A3o-ebook/dp/B09T8CD2XJ/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=1C3S11E0W3KSD&amp;dib=eyJ2IjoiMSJ9.ZytrF7_iaigK87FKMz7wMzb5JUllevtMad8QB1emuvXFi-i-I3AFAyYFIcvj2qBQQFWiuiQhLJWbEJKbIZFjCR2UL3lKVF0bEQFbJfr5PqjLY5lzMNllYu8jo0a8fs_5X7o_efqHM5cET1LddnUNmQ_ezG5JnauGdhnAgVquIBsRohZoP-luY2XjwxWbxgZ8xIx1aLv6SohuDcCpzeLgc-u-8CZWyv3lBOmWNDBYMz5HSRQ6-1pISTetRGb72zkTwOb_tYK_7XG3bheYYh27MHsiT9sQ5DfTDsO8WpRiWu0.qIMoz5PEmJ78YGsCqPj3MHBnili8pEXj_8Z-hSBGRrg&amp;dib_tag=se&amp;keywords=Em+busca+de+cinderela+%2F+Em+busca+de+perfei%C3%A7%C3%A3o&amp;qid=1740100117&amp;s=books&amp;sprefix=sem+esperan%C3%A7a%2Cstripbooks%2C334&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91ZyCiArB0L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/inconveniente-loja-conveni%C3%AAncia-Kim-Ho-yeon/dp/655838244X/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=36PCD0Y4EEN3M&amp;dib=eyJ2IjoiMSJ9.U50uXAQcU_YZz1YEXzh6GGwMLhHru79i5qN9hx7-dsyBEeefIDcr9QGauSE13a46bFMefnMXqnG-Cr1EtFWY_vC_pdjEz1WQfM5rZ80nJJHlSjQz3TzM5fNyUREjz-dsftW1LQReHYQH8ikEo2H6w-4jjujj0yqiocvmYVJyqAx5flZIX6B4hVLb2GvH6d-BWCMgHY6zfmnxwGiEn1w7DAjjYAtHpiWQSNO2n2qq8E2Yj9PzeKazSngWvIuSUEYoaH-YARA0tYAyDsqC_ltBKegYIvpYEGSBjQ_xjg54jS0QgdMgRb-0uJ_H46tdNPfyPgAWq8swxKZ0CA3He7YFURbbobWN4HnyzTrHIxzbH2k.RVsz1XjFOYMgIifyM7IgcWWCjal6wqwDWTg3k7I0ugo&amp;dib_tag=se&amp;keywords=A+inconveniente+loja+de+conveni%C3%AAncia&amp;qid=1740100132&amp;s=books&amp;sprefix=em+busca+de+cinderela+%2F+em+busca+de+perfei%C3%A7%C3%A3o%2Cstripbooks%2C187&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/918CJwZvvdL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/assim-que-come%C3%A7a-Vol-acaba/dp/6559811395/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=2Q6KVVVPLWMTH&amp;dib=eyJ2IjoiMSJ9.we1CufksnMie9kOcPHIXLkC1wvv6fJRnBaWXLCDJg-VgIxWhnxfG8vwcSpetYfZZwyq63wZRDi7IpFE3cXQAPjveuUzH1iyRHlze2RDPcCEVcl41M_Ik4NgszO8rifFmRzePGzVgX5vOCExb0valhm9YRIMs7PwS9fMPLKsAxH_xLyHz3-jTkwyFfWipppP7NJ09CB9GWMARyEsid4iXFnxf6eMpx98J055PWvBj9W4.trBSP27QURa6q2Elr05TGLzJtVQ0G2PRIJ0mBB4E_Jo&amp;dib_tag=se&amp;keywords=%C3%89+assim+que+come%C3%A7a&amp;qid=1740100146&amp;s=books&amp;sprefix=a+inconveniente+loja+de+conveni%C3%AAncia%2Cstripbooks%2C187&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81Izv2GRWoL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81u8c5lziEL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/At%C3%A9-ver%C3%A3o-terminar-Colleen-Hoover/dp/6559810372/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=2JKX8K11IGLKQ&amp;dib=eyJ2IjoiMSJ9.MKFWGswgexbwMDI8dYx3Ux7iOZ88kmS1MR4D9UuaAG7ZLrpMvbC1SVJSyqT4-CnrsX6n8rpAxhO52OAFxzS6oqbQezqnbzOu3msrQNMumrbpPbTrzsae2dqtZvtClIAMsFcV9xvqK5YrgryORxQoJinAa7-4TFRpv8PEcwsxwANuiQRFnnjfpXDGEbbKrMY0AkJTxhzOh_mla3l4x0jz6G5hJNyU9rLWwPVVP5YgzA-6pGh3Q9yheQbS_JX5IeMF3GnnCF0DB2gyHvSLW1bYv5iAqLnv2VK2I7LPzI-XJATqtwtB2AnmY8dBzFNxvx8QSD5MpRDbG-QgcxSx5aMVNokNq_JeEwUdYmjSUFXVKOqXjkEkuWGnAMlYcmR-Fqom.sj3LM8KOxCKBspqF9CR_DnzLx5sCdcGgqywUBlc-8vw&amp;dib_tag=se&amp;keywords=At%C3%A9+o+ver%C3%A3o+terminar&amp;qid=1740100162&amp;s=books&amp;sprefix=%C3%A9+assim+que+come%C3%A7a%2Cstripbooks%2C203&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Audible-Tarde-demais/dp/B0CHCD9JRF/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=1STOD4NV6ZFW2&amp;dib=eyJ2IjoiMSJ9.mFn7Tytumhz6wsr3m74-QyT_fM50SEk5_dPwBPSkqJfCsicBhZ9ZzgYHL1qzv8mDTI9I_MOSmRsg0Sj8IvfeE3053U0DN3GM2y5dvvTNcCJytnwxQBlM41HX-oXGP7tXrotXFSu53zWOk17Obm801qjuWrBtIY3ExC8p854oAYFxu_XiMyMTRhOaFzOqfpCtdVtSpta5pFGrsTVvdyVpqc2jFt3xU2SDuR64GaTDG4o.YvZuaZ5zHtvBso7YlUWOMHJmryMs61cYRFdubss68pU&amp;dib_tag=se&amp;keywords=Tarde+demais&amp;qid=1740100182&amp;s=books&amp;sprefix=at%C3%A9+o+ver%C3%A3o+terminar%2Cstripbooks%2C187&amp;sr=1-2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Verity-Colleen-Hoover/dp/8501117846/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=KFS1BQYOR39W&amp;dib=eyJ2IjoiMSJ9.WSo6UanQzlr7jZF7D8KPVBdMjZhmbDxSCm8hO1Ho9yAktDeFjO-oM1gO-UGC-c6aZfzjjkvwtW7IG-tGOv71sMh-e81GexhiAy8HAADKwCq0WEs8bpFEuU2SfgvDPFgSO_O1QHDO3c0qfv0B_GjugpaEJ8PQC06kzoLwbhBQgWHs0Qo8u1VTxKjGQd_O7T6nnaC69LjnlkxQEgaCBjkqErXzv0kRruNQrkUQ4VVNBUpT4AAniMVAtKpX_NKEsMJq-uur0ikItVlYTyvNS0zFR8xBF_pOPCquRTcx9RQK67xqO8YfLq2sZsxVvNmTAXDjKNaGyf_Oyl6aXEXtcqUbNp55De7asCZwdtfUzwVoHkpqUDEnpyofXYT0ZPYh74FTcZtJ02fwRiDS7bFwghpnPRKOu3pKVRO5pKg5G7Zx0xWvm54kro4mjijmY482njek.JUNaYO2p1QCbtQ_A9LZc-qSe5Ah_dTZOCOUtZNAtSmo&amp;dib_tag=se&amp;keywords=Verity&amp;qid=1740100242&amp;sprefix=%2Caps%2C210&amp;sr=8-1&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91SDZ2eUj+L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Confesse-Colleen-Hoover/dp/8501109320/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=2ZHKGGVYNLI4W&amp;dib=eyJ2IjoiMSJ9.hQXX3epqRHYn2h92VdqjnuW8ZD8ZEXpgsqG-TfI-3pGe8Z-tdeZP1Fl8wlTD5vjx6vnGsMFgVmO4SgvuzpJjm9cyZrjlu1yS1JWxd7S5UG99RoDxI6N_ymxy6KQBWOR5kTD61QKOfjztyG59SjtymBXAyOnclMHr9LLYWBykoUARaW0E5Rjc5MU0J0ACJHUQ-RQHNpCJLl2sLzcLPBpd9e2_KzpwDD4LpsjEfxGTSTykjdvmIzLkylCoa468ZyY--I-5_KPR50NW2gbXp1Qymdyoz_2lDzNPLNcAAyTzg9Pg9AP7K1xMovHSFgstexfVtbEXSEvjP8cZ5a5N3JcdQuYrvcXBjnGVXYfT-8hUgCcHM-82G2lFUC5kJzd3AU82BoeEVt4nrFNYxB0ETN3Y5G4wskvBV5Ib8OMue_tnTI7EhAZabwVr_dTqWeHCobyi.4Lq-wQlwdqZXj1KYBru2fhAmRqtd-o1pbYgfyxrr200&amp;dib_tag=se&amp;keywords=Confesse&amp;qid=1740100270&amp;sprefix=tarde+demais%2Caps%2C202&amp;sr=8-1&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91JhEqiauUL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Talvez-agora-Colleen-Hoover/dp/8501117854/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=3N4QBFYV8PHDM&amp;dib=eyJ2IjoiMSJ9.MJcC8i303rlNxkQaJVNRBAeh2NcLrB2YxTre3_l6DSFA5hU6VFPAE2g-jJ2XbT_URWjCKDE2XBIbdJy6KxMB9hU5g_k1xVhRpEv_J5qCsj2FhXaSZn30ehhaJGhH4I5dMSMUJBbIXPlXRIjgDkbXDA_ndhM3Q0PVU3HjaN0S5-zx-GFL248L_eguYMy3UEv810Nhw7pg0QMOHgYapvRvGALpmGWfnZwAYWfxR1cYSH6uzu-EcMv-U0BmER6jnL5BBrYfu4XBS70OHfobGF9c3Vo7NjJYDtNiurBLFod8PkD5xLniJGRfm6jocC8Fj0PB3ppziBvflWZFFp__90BCbLYDDjuwgNYe9bwNjsL5Zru6JHJKF8arDC0xyyH53muc1ot1DnGRP8OeChp1R_mDTqNwktOgw6NuZWRcLAK0-PdMCbdXMgFuYm-Hj5rCPK8p.Y-RGBqX7ljJkwePcvf-aP8yVQ-RT3Fggo3RPlA9Z4iM&amp;dib_tag=se&amp;keywords=Talvez+agora&amp;qid=1740100295&amp;sprefix=confesse%2Caps%2C193&amp;sr=8-1&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81GH54cTScL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Nunca-jamais-1-Colleen-Hoover/dp/8501106216/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=27VGWNNFM2DGZ&amp;dib=eyJ2IjoiMSJ9.VcATWlQzFRGIcm3vBJ-zRW6aIauUSA6ZE2A61Qd3WTxxWED1-iDSOIXKaVoLGrvsITk0bxKzEMdcTg6EjKs1ciGL-nxr-xRlBrZ5sHhKPDH3buvXiFWjh4dxoP4-gfcu50ynP6SziGs-moKThMZ18fRsWoXbCUtYHipy91JvJm_uFI-vqjEdLVbE3S59eJhDyTm4yY8YrOBwaJhnpPjDUlUTBg8jVAkz1syP13TEzp5bdsDBB4SS3ZlRPldOm_kUw1LCWSTDc-CLkdbpyJmKPCQQVZpzxwnHxv_fltoh91dAT2tek4V6H5S3mhfEbrQqgmQFxtku3r8ncPxakMTTsKPJPPl-rWUws0RyLXOaEFMPWUxQEjxijQoCSVmh3WbjVTIVfYe9Txg1DhaAJklQC_RF1puORR4m8C_s3Xfl-zGWb3fXLEZHtPJvNWNA8n_y.6sPSvKxXAuo4GrQZ5D8-VfZ48uFhnHRMPXyRXEfHNao&amp;dib_tag=se&amp;keywords=Nunca+jamais&amp;qid=1740100329&amp;sprefix=talvez+agora%2Caps%2C193&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Nunca-jamais-Parte-Colleen-Hoover/dp/8501108065/ref=sr_1_3?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=27VGWNNFM2DGZ&amp;dib=eyJ2IjoiMSJ9.VcATWlQzFRGIcm3vBJ-zRW6aIauUSA6ZE2A61Qd3WTxxWED1-iDSOIXKaVoLGrvsITk0bxKzEMdcTg6EjKs1ciGL-nxr-xRlBrZ5sHhKPDH3buvXiFWjh4dxoP4-gfcu50ynP6SziGs-moKThMZ18fRsWoXbCUtYHipy91JvJm_uFI-vqjEdLVbE3S59eJhDyTm4yY8YrOBwaJhnpPjDUlUTBg8jVAkz1syP13TEzp5bdsDBB4SS3ZlRPldOm_kUw1LCWSTDc-CLkdbpyJmKPCQQVZpzxwnHxv_fltoh91dAT2tek4V6H5S3mhfEbrQqgmQFxtku3r8ncPxakMTTsKPJPPl-rWUws0RyLXOaEFMPWUxQEjxijQoCSVmh3WbjVTIVfYe9Txg1DhaAJklQC_RF1puORR4m8C_s3Xfl-zGWb3fXLEZHtPJvNWNA8n_y.6sPSvKxXAuo4GrQZ5D8-VfZ48uFhnHRMPXyRXEfHNao&amp;dib_tag=se&amp;keywords=Nunca+jamais&amp;qid=1740100329&amp;sprefix=talvez+agora%2Caps%2C193&amp;sr=8-3&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Nunca-jamais-vol-Colleen-Hoover-ebook/dp/B07NNV2186/ref=sr_1_4?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=27VGWNNFM2DGZ&amp;dib=eyJ2IjoiMSJ9.VcATWlQzFRGIcm3vBJ-zRW6aIauUSA6ZE2A61Qd3WTxxWED1-iDSOIXKaVoLGrvsITk0bxKzEMdcTg6EjKs1ciGL-nxr-xRlBrZ5sHhKPDH3buvXiFWjh4dxoP4-gfcu50ynP6SziGs-moKThMZ18fRsWoXbCUtYHipy91JvJm_uFI-vqjEdLVbE3S59eJhDyTm4yY8YrOBwaJhnpPjDUlUTBg8jVAkz1syP13TEzp5bdsDBB4SS3ZlRPldOm_kUw1LCWSTDc-CLkdbpyJmKPCQQVZpzxwnHxv_fltoh91dAT2tek4V6H5S3mhfEbrQqgmQFxtku3r8ncPxakMTTsKPJPPl-rWUws0RyLXOaEFMPWUxQEjxijQoCSVmh3WbjVTIVfYe9Txg1DhaAJklQC_RF1puORR4m8C_s3Xfl-zGWb3fXLEZHtPJvNWNA8n_y.6sPSvKxXAuo4GrQZ5D8-VfZ48uFhnHRMPXyRXEfHNao&amp;dib_tag=se&amp;keywords=Nunca+jamais&amp;qid=1740100329&amp;sprefix=talvez+agora%2Caps%2C193&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81WYRj57seL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81NZsbszdaL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81yLaJloH1L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Tudo-por-namorado-revista-ampliada-ebook/dp/B0BMT9FRPH/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=3U84C2E8GDRZY&amp;dib=eyJ2IjoiMSJ9.ABFx5o2yIxqwEnGYWgCme8KrLXnw6rQumPfH2qpMfX6SPEjJ7WMRjSATMpJ7t8QGKjLJnX3P1n6UF9wmS347TtioEV4AjMxwp9uGBx5R8p2no2Fvs5BobEPfOZUI-1kO_Jm7MPC3nky5jC0U-XbDgOgIGezsIOGtnP7UH2bfiJm9HjfVIByYHr2Mi7e5Zaku8eg9TJAIKePxhAbRGn7yc5DUU-afSJmfSsXVyKzkcIE.XbADREZyLT1H04jXIlCvZRCumVAaTnuX6mpeTTsvwqY&amp;dib_tag=se&amp;keywords=Tudo+por+um+Namorado&amp;qid=1740100369&amp;s=books&amp;sprefix=m%C3%A9trica%2Cstripbooks%2C183&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/815HnFPiU+L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/coisas-que-fazemos-por-amor/dp/8580417694/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=3CWGZ5IPUYIGO&amp;dib=eyJ2IjoiMSJ9.2FFoVSUnAMSv1uIqaQ14-FX8t_iWejvCiz0quNd-8ArksJv5US1wfzI859qOu0uuV3X4E569CfjP8KZBnfsmy99qZ6MrNFsh04EXsSmE8iag-9318cCg693tmRDj9cnbemn8Y8VvxQy9hWALXnj7pYnHH84mCgcKOETVKCRHYUD7y-M9dB5loSriHX5Y_OQehkwiyyP4J8tcWFj6UzxwyS5gxfLEI8_pEcSPzrxq2x8.UVRAEdCT1xxrBG-IAl1IMakF94FXYXTxd6iUyUgzeN8&amp;dib_tag=se&amp;keywords=As+coisas+que+fazemos+por+amor&amp;qid=1740100387&amp;s=books&amp;sprefix=tudo+por+um+namorado%2Cstripbooks%2C185&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61gO+kfNCdL._SL1006_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Tudo-que-gente-sempre-quis-ebook/dp/B07PVZMTDP/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=3PGW5FP1DAC8W&amp;dib=eyJ2IjoiMSJ9.Tv5CZmwwjY8evNAQSVbYxCWLF42p0tMGhtcto9tDo9euLkQZ4WfHCKUegpOJdWLD5E9R8V8NRyZRVoWM0dIBbmlWUrZv9Bw0awC0DI_0GKiOOeEJybcuIUCk5HEeG-CeAOFFTeYZbwNkceHagBoEhId0HNpeTMjsKnSR4EdLYDFegSOz0twH70t7xl1Dcr7XL4qJtcIAatORqLIstdncSh_WoKg1Kt_DE1Z7hOLlMriMrrV4Bw77NJ6mxeNLG4oRwj_C1YdMW9ScMzJ210EYQK5O5wXoYaFnorfmdV3tsKc.QQxjU1QXsBKrPGJgDlzFoaeROmb9DD36ql003Vcpeas&amp;dib_tag=se&amp;keywords=Tudo+que+a+gente+sempre+quis&amp;qid=1740100404&amp;s=books&amp;sprefix=as+coisas+que+fazemos+por+amor%2Cstripbooks%2C195&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81k+Q45uIwL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Jogos-heran%C3%A7a-Jennifer-Lynn-Barnes/dp/6588131194/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=KKK71FH5FI2L&amp;dib=eyJ2IjoiMSJ9.kQAAePgBOtFkDC-y0h3RXht9q3K2oMud5vEHzMhtqB02wcUG8PbAkIcOC0zY0uTOtnqhV3BLS2YHDIfXQPWUcqblElCewQxa0MDtSs9UuMTNEo8Ug97t6_0b5CRfngSgD-Z0U_BeTuLMtMZIvj7IjpDb3lKu7QWauTHPqzecYleXjxmOc1_KOnfo5YeeyL-k9aFT0bZi7AgrP3U5LuBJiC16c417n4dbyNT8CAvXuj8.A1fMX2-J4pHxL7Nj04nYrwEsxEsoIIgWm-HRaOyYulw&amp;dib_tag=se&amp;keywords=Jogos+de+Heran%C3%A7a&amp;qid=1740100508&amp;s=books&amp;sprefix=jogos+de+heran%C3%A7a+%2Cstripbooks%2C341&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/%C3%9Altima-Festa-Lucy-Foley/dp/8551005723/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=3MRFMBCWQ3IGF&amp;dib=eyJ2IjoiMSJ9.0m_7ITu2KnbbbZilBxZWLPxkuf81e-C1unXmZS8Xckia0yH1kl0H33lm_CCAWwJrcp7q__bkDJp8bMSmKufBQUTPuA2pJZRastvLC1xLwI2Z5YuN5S0UW7I9tFDIoJOy4NNGMF6zuuirZDvhQdWfitxomUj_OcUBBmuNjVKr-lNoCzI04xI14ZavrDCAnWu6YS_rsYquAY5ytflU_a8TYlzL3FYwAoyJ01gcXR7voB8.32tNy-PJe4TpLUQ-UsgJVJTux5bKNX9NCT0AZgn8ZRk&amp;dib_tag=se&amp;keywords=A+%C3%BAltima+festa&amp;qid=1740100523&amp;s=books&amp;sprefix=jogos+de+heran%C3%A7a%2Cstripbooks%2C187&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71gayVVXUpL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91R8S52UP6L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/paciente-silenciosa-Alex-Michaelides/dp/8501116432/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=2L03ULLPR1240&amp;dib=eyJ2IjoiMSJ9.mX3J6_qRHL-7EUXw7YALntoAeAPCSZ2P_0fPg2ZtjqLyymX0VBdvKCkn_YNaYNaUyOk-vfevEPDb5UWKU58l9Fo5AfVJhHBfd9sAW0a8JLnoXrSps1RKi_N1dGqLOFroGAfR6oPqDdqXrKCV_uFlOHg4nrD4gIu0G3B5LtzR9e_AtFeBlGzW3YXiUM0IqiRY9DGQzr4V4mKA9VHrtPrGdodWzwxK3Xwk-oiNawW4CjQ.0XiKTpdTaruzPyy8PS10X4ugi-ciU9Voz2p2KGLMXPs&amp;dib_tag=se&amp;keywords=A+paciente+silenciosa&amp;qid=1740100539&amp;s=books&amp;sprefix=a+%C3%BAltima+festa%2Cstripbooks%2C184&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91-NK9y+EAL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Tempo-Gra%C3%A7a-Frances-Pontes-Peebles-ebook/dp/B07XTPVKGR/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=2PU4OTOWS6BZH&amp;dib=eyJ2IjoiMSJ9.503HQBh_lhjIfOFWbPe_pMF1J8XtL6CBoWxyesSdDN_7p8OJHVUkDjmuv4jsMINAfhyYAisXZI12TgEYF5ZK5KYP1L36tD7Qc8Mk9HqZgGEJQBbvkWynHXQL1pWTjP6xYFcxvzi79C8oZ6C-m8P3QgvXoEki4Ww6q4NdkR-We-WN6GBnU16ZJNPyK2OleMXCDF20-VpqxKmp2V9QYhYKeTOm57Pb2Yasuw0JhyVVNE8.TSzQnypjXzoYjj-AjZ2Yum18zZr-9IB-4m5ndLVj-nc&amp;dib_tag=se&amp;keywords=Tempo+de+Gra%C3%A7a+tempo+de+Dor&amp;qid=1740100555&amp;s=books&amp;sprefix=tempo+de+gra%C3%A7a+tempo+de+dor%2Cstripbooks%2C190&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>https://img.skoob.com.br/KmQbl_osqfPwzpJg2uHvkK1du7M=/600x0/center/top/filters:format(jpeg)/https://skoob.s3.amazonaws.com/livros/1931/O_ESCARAVELHO_DO_DIABO_1231287897B.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Escaravelho-Diabo-Lucia-Machado-Almeida/dp/8508173539/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=17MYKYR0HX38R&amp;dib=eyJ2IjoiMSJ9.4DUgyrzqywq62urecGvU0F1qGFxBDbcs0CK-YA8XAmrW9I2hyttNziREBwzuqfKO58m3JKd7rpDdEMOvGJg5wv9yPJb6bFL0TMPmJdEyOZsGSKQ4khzamM3gRhSrxqoyZOdRQ8KQK1oeJex3oVJeHbIkmlReYpeR2CIVzLeLiVxeeditJJYQRCnR5CGuMgkKzxzrtlX2URPDDP2ENU0yc7yOtWcbix7incTI2FgwCkg.RpffimGK1x9bc23kgMGjZLH0D8xauVbljAx10EFSWvM&amp;dib_tag=se&amp;keywords=O+escaravelho+do+diabo&amp;qid=1740100573&amp;s=books&amp;sprefix=tempo+de+gra%C3%A7a+tempo+de+dor%2Cstripbooks%2C265&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
+  </si>
+  <si>
+    <t>https://livrarialoyola.fbitsstatic.net/img/p/jogos-de-heranca-267689/462433.jpg?w=800&amp;h=800&amp;v=no-change&amp;qs=ignore</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/lado-feio-do-amor/dp/8501105732/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=QO27H95X9BVH&amp;dib=eyJ2IjoiMSJ9.Cttc6snbry4PfE-Un-cfL216coWz7naXqHINCZMUddFsbT4FQqWoh5nPJqi2YE3jx4NGuhfVvfEALM5v3CB6Txx9rOdDCyuOpxYjbu9tw-ozxTwEjkntG1hZRpM_zVSfieAedhTJ8xoHXj9XHcvSLG6tmZXQLGvo7pWHDzDhPC2AkRzF2WNdFLKkmFaogdF5WMl254WPLkAavs1qKtzeG3UCYalV8wv7p8lZRi9pelk.23bqRQuGKMP2g4lIkBeomjBIrISkY2xm8WomTNH1hTU&amp;dib_tag=se&amp;keywords=O+lado+feio+do+amor&amp;qid=1740100639&amp;s=books&amp;sprefix=o+escaravelho+do+diabo%2Cstripbooks%2C193&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81FEytag46L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>A chama dentro de nós</t>
+  </si>
+  <si>
+    <t>O silêncio das águas</t>
+  </si>
+  <si>
+    <t>A força que nos atrai</t>
+  </si>
+  <si>
+    <t>O ar que ele respira</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81epdKcIEzL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81i7AETHrqL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/810bhb5gw7L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81pbjlJzECL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Box-s%C3%A9rie-Elementos-Brittainy-Cherry/dp/8501306150/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=16S5CF91CX82N&amp;dib=eyJ2IjoiMSJ9.RG4vLVy65kg1W4vXQ6OO0WRskagCzhR3s70Te-c1HZB_yXufTi27zofpiT6GOOPaEgQX8yasHPEzun60CSEzRED8Sw7D2ISJOefV8HMgQg00bbUgwL1fJS-ms2bK38OZZbLrZEVv_-Aas38KiiJBZTAZbRM0feGZixT8y2IF-0PAVT4QsilhYhZZ-yveraw4.YahGEwHGspK8oNRetS8PUDDqVzmI2_iseBQgNwkncZY&amp;dib_tag=se&amp;keywords=A+chama+dentro+de+n%C3%B3s&amp;qid=1740100807&amp;s=books&amp;sprefix=o+lado+feio+do+amor%2Cstripbooks%2C490&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
+  </si>
+  <si>
+    <t>Tempestades do Sul</t>
+  </si>
+  <si>
+    <t>Luzes do leste</t>
+  </si>
+  <si>
+    <t>Estrela do norte</t>
+  </si>
+  <si>
+    <t>Ondas do oeste</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Box-S%C3%A9rie-B%C3%BAssola-Brittainy-Cherry/dp/6555877960/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=1C85AIXE1Q9A1&amp;dib=eyJ2IjoiMSJ9.xn3t6bHZChASovBDytagzTWShiZ_qmLmuesyRbuEBielRkKogVPH3ISILNyfhQwkefoksnvwDQyywyyQFCA4qn_splEaAmkESs_B7K8MN5RTB6RcYnBIT9x0auWl3s41m9qDoLVgbyuNh9V99KAaF_G-vIKHS2oPh-Q4XWu59QaGfn4f6YyyV9eJhy5UDIaLotJfTTDXd1Z5WSkh2g15lCfrew41TBZSNdVX5I9dul7AtyAEtsjQQnWFGtKOlX5v0tDWj1fUOUS-ANDT2DO8yD6VJjfdD-lSMRvPKXWzm2jN6VzErXKLZvCkWf3TzHsdF2yGN9tKOVCk8LXeCNRwOw.PiUhsPBTpjNYDZRW5_WxWBuZTvlfWJwxMYuDth515c4&amp;dib_tag=se&amp;keywords=Ondas+do+oeste&amp;qid=1740101035&amp;s=books&amp;sprefix=ondas+do+oeste%2Cstripbooks%2C451&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/813QLUnkmoL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81hYILm8UbL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81YYte4yTEL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81SmxCAyUKL._SL1500_.jpg</t>
   </si>
 </sst>
 </file>
@@ -841,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,10 +1237,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -921,10 +1260,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -944,10 +1283,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -967,10 +1306,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -990,10 +1329,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="G6" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1013,10 +1352,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="G7" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1036,10 +1375,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1059,38 +1398,38 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="3">
         <v>9786558382447</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="G10" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1105,15 +1444,15 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1128,15 +1467,15 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1151,10 +1490,10 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1174,15 +1513,15 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -1197,15 +1536,15 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1220,15 +1559,15 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -1243,15 +1582,15 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -1266,15 +1605,15 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1289,21 +1628,21 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
       </c>
       <c r="D20" s="3">
         <v>9788532519184</v>
@@ -1312,21 +1651,21 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D21" s="3">
         <v>9788580417692</v>
@@ -1335,21 +1674,21 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="3">
         <v>9788580419443</v>
@@ -1358,21 +1697,21 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="3">
         <v>9786588131190</v>
@@ -1381,21 +1720,21 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D24" s="3">
         <v>9788551005729</v>
@@ -1404,18 +1743,18 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>247</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>16</v>
@@ -1427,21 +1766,21 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="3">
         <v>9788530600419</v>
@@ -1450,21 +1789,21 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="4">
         <v>15022025</v>
@@ -1473,15 +1812,15 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -1496,15 +1835,15 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="G28" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -1519,15 +1858,15 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -1542,15 +1881,15 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
@@ -1565,15 +1904,15 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -1588,15 +1927,15 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -1611,15 +1950,15 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -1634,15 +1973,15 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -1657,18 +1996,18 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
@@ -1680,21 +2019,21 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D37" s="3">
         <v>9788580418873</v>
@@ -1703,21 +2042,21 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D38" s="3">
         <v>9788584391400</v>
@@ -1726,18 +2065,18 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>16</v>
@@ -1749,21 +2088,21 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D40" s="3">
         <v>9788555341618</v>
@@ -1772,21 +2111,21 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" s="3">
         <v>9788576865230</v>
@@ -1795,21 +2134,21 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" s="3">
         <v>9786558380771</v>
@@ -1818,21 +2157,21 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D43" s="3">
         <v>788584392315</v>
@@ -1841,21 +2180,21 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="3">
         <v>978655650655</v>
@@ -1864,21 +2203,21 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G44" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D45" s="3">
         <v>978655565504</v>
@@ -1887,21 +2226,21 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D46" s="3">
         <v>9788584392162</v>
@@ -1910,21 +2249,21 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D47" s="3">
         <v>9786559571284</v>
@@ -1933,21 +2272,21 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48" s="3">
         <v>9788580417258</v>
@@ -1956,21 +2295,21 @@
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="3">
         <v>9788542207972</v>
@@ -1979,21 +2318,21 @@
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="3">
         <v>9788580573299</v>
@@ -2002,21 +2341,21 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D51" s="3">
         <v>9788550302669</v>
@@ -2025,21 +2364,21 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52" s="3">
         <v>9786555604429</v>
@@ -2048,21 +2387,21 @@
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G52" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D53" s="3">
         <v>9788542810394</v>
@@ -2071,21 +2410,21 @@
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D54" s="3">
         <v>9788580574715</v>
@@ -2094,21 +2433,21 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55" s="3">
         <v>9786555605167</v>
@@ -2117,21 +2456,21 @@
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D56" s="3">
         <v>9786550471408</v>
@@ -2140,21 +2479,21 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D57" s="3">
         <v>9788580571738</v>
@@ -2163,18 +2502,18 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>106</v>
+        <v>267</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>16</v>
@@ -2186,21 +2525,21 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D59" s="3">
         <v>9786588131480</v>
@@ -2209,21 +2548,21 @@
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D60" s="3">
         <v>9788584391073</v>
@@ -2232,21 +2571,21 @@
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G60" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D61" s="3">
         <v>9786556092102</v>
@@ -2255,21 +2594,21 @@
         <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D62" s="3">
         <v>9788555391217</v>
@@ -2278,21 +2617,21 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D63" s="3">
         <v>9788537818473</v>
@@ -2301,21 +2640,21 @@
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D64" s="3">
         <v>9788581740102</v>
@@ -2324,21 +2663,21 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D65" s="3">
         <v>9788573588453</v>
@@ -2347,21 +2686,21 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G65" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D66" s="3">
         <v>9788552955092</v>
@@ -2370,21 +2709,21 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D67" s="3">
         <v>9788581634579</v>
@@ -2393,21 +2732,21 @@
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D68" s="3">
         <v>9786556430522</v>
@@ -2416,21 +2755,21 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D69" s="3">
         <v>9788576848295</v>
@@ -2439,21 +2778,21 @@
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D70" s="3">
         <v>9788562838095</v>
@@ -2462,21 +2801,21 @@
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D71" s="3">
         <v>9788572530101</v>
@@ -2485,21 +2824,21 @@
         <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D72" s="3">
         <v>9788594318381</v>
@@ -2508,21 +2847,21 @@
         <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D73" s="3">
         <v>9786555246117</v>
@@ -2531,21 +2870,21 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G73" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D74" s="3">
         <v>9788575421024</v>
@@ -2554,21 +2893,21 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D75" s="3">
         <v>9788563219473</v>
@@ -2577,21 +2916,21 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D76" s="3">
         <v>9788581632230</v>
@@ -2600,21 +2939,21 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D77" s="3">
         <v>9788581632575</v>
@@ -2623,21 +2962,21 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D78" s="3">
         <v>9788525056122</v>
@@ -2646,33 +2985,492 @@
         <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G78" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D79" s="3">
         <v>9788551009840</v>
       </c>
       <c r="E79" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F79" t="s">
+        <v>158</v>
+      </c>
+      <c r="G79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F79" t="s">
-        <v>160</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="B80" s="1" t="s">
         <v>161</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" s="3">
+        <v>9786555607284</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>163</v>
+      </c>
+      <c r="G80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="3">
+        <v>9786559872053</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>165</v>
+      </c>
+      <c r="G81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="3">
+        <v>9786559871568</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>170</v>
+      </c>
+      <c r="G82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="3">
+        <v>9788551014158</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>173</v>
+      </c>
+      <c r="G83" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" s="3">
+        <v>9788556520487</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>178</v>
+      </c>
+      <c r="G84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="3">
+        <v>9788551013700</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>181</v>
+      </c>
+      <c r="G85" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="3">
+        <v>9788551009833</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>185</v>
+      </c>
+      <c r="G86" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="3">
+        <v>9786558382935</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>189</v>
+      </c>
+      <c r="G87" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="3">
+        <v>9786555606645</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>193</v>
+      </c>
+      <c r="G88" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="3">
+        <v>9788501922502</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>196</v>
+      </c>
+      <c r="G89" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="3">
+        <v>9788501920102</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>199</v>
+      </c>
+      <c r="G90" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="3">
+        <v>9786555872873</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>202</v>
+      </c>
+      <c r="G91" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="3">
+        <v>9786555872873</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>205</v>
+      </c>
+      <c r="G92" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="3">
+        <v>9786555875812</v>
+      </c>
+      <c r="F93" t="s">
+        <v>262</v>
+      </c>
+      <c r="G93" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="3">
+        <v>9786555875850</v>
+      </c>
+      <c r="F94" t="s">
+        <v>266</v>
+      </c>
+      <c r="G94" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="3">
+        <v>9786555875843</v>
+      </c>
+      <c r="F95" t="s">
+        <v>266</v>
+      </c>
+      <c r="G95" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="3">
+        <v>9786555875829</v>
+      </c>
+      <c r="F96" t="s">
+        <v>266</v>
+      </c>
+      <c r="G96" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="3">
+        <v>9786555874273</v>
+      </c>
+      <c r="F97" t="s">
+        <v>271</v>
+      </c>
+      <c r="G97" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="3">
+        <v>9786555874280</v>
+      </c>
+      <c r="F98" t="s">
+        <v>271</v>
+      </c>
+      <c r="G98" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="3">
+        <v>9786555874303</v>
+      </c>
+      <c r="F99" t="s">
+        <v>271</v>
+      </c>
+      <c r="G99" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="3">
+        <v>9786555874297</v>
+      </c>
+      <c r="F100" t="s">
+        <v>271</v>
+      </c>
+      <c r="G100" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
